--- a/app/download_dir/одежда_по каждому размеру.xlsx
+++ b/app/download_dir/одежда_по каждому размеру.xlsx
@@ -1222,7 +1222,7 @@
     <t xml:space="preserve">ТЕРРАКОТОВЫЙ</t>
   </si>
   <si>
-    <t xml:space="preserve">ОДИН РАЗМЕР</t>
+    <t xml:space="preserve">ЕДИНЫЙ РАЗМЕР</t>
   </si>
   <si>
     <t xml:space="preserve">ИРАН (ИСЛАМСКАЯ РЕСПУБЛИКА)</t>
@@ -6228,7 +6228,7 @@
       <selection pane="topLeft" activeCell="R1600" activeCellId="0" sqref="R1600"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="73.33"/>
@@ -18880,11 +18880,11 @@
   </sheetPr>
   <dimension ref="A1:J246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D104" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H108" activeCellId="0" sqref="H108"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D74" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H85" activeCellId="0" sqref="H85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50"/>
@@ -22210,7 +22210,7 @@
       <selection pane="topLeft" activeCell="A751" activeCellId="0" sqref="A751"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="240.88671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="241.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>

--- a/app/download_dir/одежда_по каждому размеру.xlsx
+++ b/app/download_dir/одежда_по каждому размеру.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="994">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -1321,136 +1321,136 @@
     <t xml:space="preserve">ЖЕЛТО-ЗЕЛЕНЫЙ</t>
   </si>
   <si>
+    <t xml:space="preserve">56-62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛЕСОТО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЕЛАНЖ</t>
+  </si>
+  <si>
     <t xml:space="preserve">62-68</t>
   </si>
   <si>
-    <t xml:space="preserve">ЛЕСОТО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МЕЛАНЖ</t>
+    <t xml:space="preserve">ЛИБЕРИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">68-74</t>
   </si>
   <si>
-    <t xml:space="preserve">ЛИБЕРИЯ</t>
+    <t xml:space="preserve">ЛИВАН</t>
   </si>
   <si>
     <t xml:space="preserve">74-80</t>
   </si>
   <si>
-    <t xml:space="preserve">ЛИВАН</t>
+    <t xml:space="preserve">ЛИВИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">80-86</t>
   </si>
   <si>
-    <t xml:space="preserve">ЛИВИЯ</t>
+    <t xml:space="preserve">ЛИТВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86-92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛИХТЕНШТЕЙН</t>
   </si>
   <si>
     <t xml:space="preserve">92-98</t>
   </si>
   <si>
-    <t xml:space="preserve">ЛИТВА</t>
+    <t xml:space="preserve">ЛЮКСЕМБУРГ</t>
   </si>
   <si>
     <t xml:space="preserve">98-104</t>
   </si>
   <si>
-    <t xml:space="preserve">ЛИХТЕНШТЕЙН</t>
+    <t xml:space="preserve">МАВРИКИЙ</t>
   </si>
   <si>
     <t xml:space="preserve">104-110</t>
   </si>
   <si>
-    <t xml:space="preserve">ЛЮКСЕМБУРГ</t>
+    <t xml:space="preserve">МАВРИТАНИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">110-116</t>
   </si>
   <si>
-    <t xml:space="preserve">МАВРИКИЙ</t>
+    <t xml:space="preserve">МАДАГАСКАР</t>
   </si>
   <si>
     <t xml:space="preserve">116-122</t>
   </si>
   <si>
-    <t xml:space="preserve">МАВРИТАНИЯ</t>
+    <t xml:space="preserve">МАЙОТТА</t>
   </si>
   <si>
     <t xml:space="preserve">122-128</t>
   </si>
   <si>
-    <t xml:space="preserve">МАДАГАСКАР</t>
+    <t xml:space="preserve">МАКАО</t>
   </si>
   <si>
     <t xml:space="preserve">128-134</t>
   </si>
   <si>
-    <t xml:space="preserve">МАЙОТТА</t>
+    <t xml:space="preserve">МАЛАВИ</t>
   </si>
   <si>
     <t xml:space="preserve">134-140</t>
   </si>
   <si>
-    <t xml:space="preserve">МАКАО</t>
+    <t xml:space="preserve">МАЛАЙЗИИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">140-146</t>
   </si>
   <si>
-    <t xml:space="preserve">МАЛАВИ</t>
+    <t xml:space="preserve">МАЛИ</t>
   </si>
   <si>
     <t xml:space="preserve">146-152</t>
   </si>
   <si>
-    <t xml:space="preserve">МАЛАЙЗИИЯ</t>
+    <t xml:space="preserve">МАЛЬДИВЫ</t>
   </si>
   <si>
     <t xml:space="preserve">152-158</t>
   </si>
   <si>
-    <t xml:space="preserve">МАЛИ</t>
+    <t xml:space="preserve">МАЛЬТА</t>
   </si>
   <si>
     <t xml:space="preserve">158-164</t>
   </si>
   <si>
-    <t xml:space="preserve">МАЛЬДИВЫ</t>
+    <t xml:space="preserve">МАРОККО</t>
   </si>
   <si>
     <t xml:space="preserve">ЕДИНЫЙ РАЗМЕР</t>
   </si>
   <si>
-    <t xml:space="preserve">МАЛЬТА</t>
+    <t xml:space="preserve">МАРТИНИКА</t>
   </si>
   <si>
     <t xml:space="preserve">XS</t>
   </si>
   <si>
-    <t xml:space="preserve">МАРОККО</t>
+    <t xml:space="preserve">МАРШАЛЛОВЫ ОСТРОВА</t>
   </si>
   <si>
     <t xml:space="preserve">S</t>
   </si>
   <si>
-    <t xml:space="preserve">МАРТИНИКА</t>
+    <t xml:space="preserve">МЕКСИКА</t>
   </si>
   <si>
     <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАРШАЛЛОВЫ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МЕКСИКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XL</t>
   </si>
   <si>
     <r>
@@ -1475,139 +1475,145 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОЗАМБИК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОЛДАВИЯ</t>
+  </si>
+  <si>
     <t xml:space="preserve">XXL</t>
   </si>
   <si>
-    <t xml:space="preserve">МОЗАМБИК</t>
+    <t xml:space="preserve">МОНАКО</t>
   </si>
   <si>
     <t xml:space="preserve">XXXL</t>
   </si>
   <si>
-    <t xml:space="preserve">МОЛДАВИЯ</t>
+    <t xml:space="preserve">МОНГОЛИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">4XL</t>
   </si>
   <si>
-    <t xml:space="preserve">МОНАКО</t>
+    <t xml:space="preserve">МОНТСЕРРАТ</t>
   </si>
   <si>
     <t xml:space="preserve">5XL</t>
   </si>
   <si>
-    <t xml:space="preserve">МОНГОЛИЯ</t>
+    <t xml:space="preserve">МЬЯНМА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЖЕНСКИЙ</t>
   </si>
   <si>
     <t xml:space="preserve">6XL</t>
   </si>
   <si>
-    <t xml:space="preserve">МОНТСЕРРАТ</t>
+    <t xml:space="preserve">НАМИБИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУЖСКОЙ</t>
   </si>
   <si>
     <t xml:space="preserve">7XL</t>
   </si>
   <si>
-    <t xml:space="preserve">МЬЯНМА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЖЕНСКИЙ</t>
+    <t xml:space="preserve">НАУРУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЗ УКАЗАНИЯ ПОЛА</t>
   </si>
   <si>
     <t xml:space="preserve">8XL</t>
   </si>
   <si>
-    <t xml:space="preserve">НАМИБИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МУЖСКОЙ</t>
+    <t xml:space="preserve">НЕПАЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УНИВЕРСАЛЬНЫЙ (УНИСЕКС)</t>
   </si>
   <si>
     <t xml:space="preserve">9XL</t>
   </si>
   <si>
-    <t xml:space="preserve">НАУРУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЗ УКАЗАНИЯ ПОЛА</t>
+    <t xml:space="preserve">НИГЕР</t>
   </si>
   <si>
     <t xml:space="preserve">10XL</t>
   </si>
   <si>
-    <t xml:space="preserve">НЕПАЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">УНИВЕРСАЛЬНЫЙ (УНИСЕКС)</t>
+    <t xml:space="preserve">НИГЕРИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">11XL</t>
   </si>
   <si>
-    <t xml:space="preserve">НИГЕР</t>
+    <t xml:space="preserve">НИДЕРЛАНДЫ</t>
   </si>
   <si>
     <t xml:space="preserve">12XL</t>
   </si>
   <si>
-    <t xml:space="preserve">НИГЕРИЯ</t>
+    <t xml:space="preserve">НИДЕРЛАНДЫ АНТИЛЬСКИЕ ОСТРОВА</t>
   </si>
   <si>
     <t xml:space="preserve">13XL</t>
   </si>
   <si>
-    <t xml:space="preserve">НИДЕРЛАНДЫ</t>
+    <t xml:space="preserve">НИКАРАГУА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АНГЛИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">14XL</t>
   </si>
   <si>
-    <t xml:space="preserve">НИДЕРЛАНДЫ АНТИЛЬСКИЕ ОСТРОВА</t>
+    <t xml:space="preserve">НИУЭ</t>
   </si>
   <si>
     <t xml:space="preserve">15XL</t>
   </si>
   <si>
-    <t xml:space="preserve">НИКАРАГУА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АНГЛИЯ</t>
+    <t xml:space="preserve">НОВАЯ ЗЕЛАНДИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">16XL</t>
   </si>
   <si>
-    <t xml:space="preserve">НИУЭ</t>
+    <t xml:space="preserve">НОВАЯ КАЛЕДОНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕВРОПА</t>
   </si>
   <si>
     <t xml:space="preserve">17XL</t>
   </si>
   <si>
-    <t xml:space="preserve">НОВАЯ ЗЕЛАНДИЯ</t>
+    <t xml:space="preserve">НОРВЕГИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">18XL</t>
   </si>
   <si>
-    <t xml:space="preserve">НОВАЯ КАЛЕДОНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕВРОПА</t>
+    <t xml:space="preserve">ОАЭ</t>
   </si>
   <si>
     <t xml:space="preserve">19XL</t>
   </si>
   <si>
-    <t xml:space="preserve">НОРВЕГИЯ</t>
+    <t xml:space="preserve">ОМАН</t>
   </si>
   <si>
     <t xml:space="preserve">20XL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОАЭ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОМАН</t>
   </si>
   <si>
     <t xml:space="preserve">ОСТРОВ БУВЕ</t>
@@ -6242,11 +6248,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2223" activeCellId="0" sqref="J2223"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="73.33"/>
@@ -19522,7 +19528,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J7:J1045" type="list">
-      <formula1>Справочники!$H$2:$H$151</formula1>
+      <formula1>Справочники!$H$2:$H$153</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -19543,11 +19549,11 @@
   </sheetPr>
   <dimension ref="A1:J246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D85" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H116" activeCellId="0" sqref="H116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50"/>
@@ -22263,8 +22269,11 @@
       <c r="B152" s="0" t="s">
         <v>57</v>
       </c>
+      <c r="H152" s="0" t="s">
+        <v>518</v>
+      </c>
       <c r="I152" s="33" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22274,8 +22283,11 @@
       <c r="B153" s="0" t="s">
         <v>78</v>
       </c>
+      <c r="H153" s="0" t="s">
+        <v>520</v>
+      </c>
       <c r="I153" s="33" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22283,10 +22295,10 @@
         <v>66</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="I154" s="33" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22297,7 +22309,7 @@
         <v>95</v>
       </c>
       <c r="I155" s="33" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22305,10 +22317,10 @@
         <v>66</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="I156" s="33" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22316,10 +22328,10 @@
         <v>66</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="I157" s="33" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22330,7 +22342,7 @@
         <v>81</v>
       </c>
       <c r="I158" s="33" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22338,10 +22350,10 @@
         <v>66</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="I159" s="33" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22349,10 +22361,10 @@
         <v>66</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="I160" s="33" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22360,10 +22372,10 @@
         <v>66</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="I161" s="33" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22371,10 +22383,10 @@
         <v>66</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="I162" s="33" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22382,10 +22394,10 @@
         <v>66</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I163" s="33" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22393,10 +22405,10 @@
         <v>66</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="I164" s="33" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22404,10 +22416,10 @@
         <v>66</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="I165" s="33" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22415,10 +22427,10 @@
         <v>66</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="I166" s="33" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22426,10 +22438,10 @@
         <v>66</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="I167" s="33" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22437,10 +22449,10 @@
         <v>66</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="I168" s="33" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22448,10 +22460,10 @@
         <v>66</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I169" s="33" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22459,10 +22471,10 @@
         <v>66</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="I170" s="33" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22470,10 +22482,10 @@
         <v>66</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="I171" s="33" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22481,10 +22493,10 @@
         <v>66</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="I172" s="33" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22492,10 +22504,10 @@
         <v>66</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="I173" s="33" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22503,10 +22515,10 @@
         <v>66</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="I174" s="33" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22514,10 +22526,10 @@
         <v>66</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="I175" s="33" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22525,10 +22537,10 @@
         <v>66</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="I176" s="33" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22536,10 +22548,10 @@
         <v>66</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="I177" s="33" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22547,10 +22559,10 @@
         <v>66</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I178" s="33" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22558,10 +22570,10 @@
         <v>66</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="I179" s="33" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22569,10 +22581,10 @@
         <v>66</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="I180" s="33" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22580,10 +22592,10 @@
         <v>66</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="I181" s="33" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22591,10 +22603,10 @@
         <v>66</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="I182" s="33" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22602,10 +22614,10 @@
         <v>66</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="I183" s="33" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22613,10 +22625,10 @@
         <v>66</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I184" s="33" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22624,165 +22636,165 @@
         <v>66</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="I185" s="33" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I186" s="33" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I187" s="33" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I188" s="33" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I189" s="33" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="I190" s="33" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="I191" s="33" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="I192" s="33" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="I193" s="33" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="I194" s="33" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I195" s="33" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I196" s="33" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I197" s="33" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I198" s="33" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I199" s="33" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I200" s="33" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I201" s="33" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I202" s="33" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I203" s="33" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I204" s="33" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I205" s="33" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I206" s="33" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I207" s="33" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I208" s="33" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I209" s="33" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I210" s="33" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22792,52 +22804,52 @@
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I212" s="33" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I213" s="33" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I214" s="33" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I215" s="33" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I216" s="33" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I217" s="33" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I218" s="33" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I219" s="33" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I220" s="33" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I221" s="33" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22847,122 +22859,122 @@
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I223" s="33" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I224" s="33" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I225" s="33" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I226" s="33" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I227" s="33" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I228" s="33" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I229" s="33" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I230" s="33" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I231" s="33" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I232" s="33" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I233" s="33" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I234" s="33" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I235" s="33" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I236" s="33" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I237" s="33" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I238" s="33" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I239" s="33" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I240" s="33" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I241" s="33" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I242" s="33" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I243" s="33" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I244" s="33" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I245" s="33" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I246" s="33" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -22990,10 +23002,10 @@
   <dimension ref="C2:E110"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.4"/>
@@ -23002,13 +23014,13 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="9" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23019,18 +23031,18 @@
         <v>426</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="36" t="n">
         <v>13</v>
       </c>
-      <c r="D4" s="36" t="s">
-        <v>648</v>
+      <c r="D4" s="0" t="s">
+        <v>429</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23038,10 +23050,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23049,10 +23061,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>434</v>
+        <v>651</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23063,7 +23075,7 @@
         <v>436</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23071,21 +23083,21 @@
         <v>17</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>650</v>
+        <v>438</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="36" t="n">
         <v>18</v>
       </c>
-      <c r="D9" s="36" t="s">
-        <v>651</v>
+      <c r="D9" s="0" t="s">
+        <v>440</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23096,7 +23108,7 @@
         <v>652</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23107,7 +23119,7 @@
         <v>653</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23118,7 +23130,7 @@
         <v>654</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23129,7 +23141,7 @@
         <v>655</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23140,7 +23152,7 @@
         <v>656</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23151,7 +23163,7 @@
         <v>657</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23162,7 +23174,7 @@
         <v>658</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23170,10 +23182,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>456</v>
+        <v>659</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23181,10 +23193,10 @@
         <v>27</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23195,23 +23207,29 @@
         <v>460</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="36" t="n">
         <v>29</v>
       </c>
+      <c r="D20" s="36" t="s">
+        <v>661</v>
+      </c>
       <c r="E20" s="36" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="36" t="n">
         <v>30</v>
       </c>
+      <c r="D21" s="36" t="s">
+        <v>464</v>
+      </c>
       <c r="E21" s="36" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23219,7 +23237,7 @@
         <v>31</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23227,7 +23245,7 @@
         <v>32</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23235,7 +23253,7 @@
         <v>33</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23243,7 +23261,7 @@
         <v>34</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23251,7 +23269,7 @@
         <v>35</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23696,7 +23714,7 @@
       <selection pane="topLeft" activeCell="A751" activeCellId="0" sqref="A751"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="242.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="242.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
@@ -23708,6227 +23726,6227 @@
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="38" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="38" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="38" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="38" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="38" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="38" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="38" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="38" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="38" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="38" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="39" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="40" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="40" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="40" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="40" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="40" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="40" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="38" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="38" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="38" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="38" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="38" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="38" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="38" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="38" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="38" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="38" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="39" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="40" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="40" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="40" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="40" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="40" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="40" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="40" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="40" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="40" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="40" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="39" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="41" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="41" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="41" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="41" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="41" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="41" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="41" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="41" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="41" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="41" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="41" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="41" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="41" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="41" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="41" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="41" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="41" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="41" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="41" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="41" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="41" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="41" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="41" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="41" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="41" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="41" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="41" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="41" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="41" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="41" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="41" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="41" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="41" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="39" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="41" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="41" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="41" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="41" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="41" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="42" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="42" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="42" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="42" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="42" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="39" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="41" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="41" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="39" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="41" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="41" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="41" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="41" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="41" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="41" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="41" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="41" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="41" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="41" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="41" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="41" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="41" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="41" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="41" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="41" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="41" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="41" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="41" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="41" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="41" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="41" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="41" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="41" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="41" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="41" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="41" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="41" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="41" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="41" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="41" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="41" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="41" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="41" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="41" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="39" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="41" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="41" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="41" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="41" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="41" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="41" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="41" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="41" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="41" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="41" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="41" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="41" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="41" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="41" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="41" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="41" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="41" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="41" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="41" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="41" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="41" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="41" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="41" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="41" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="41" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="41" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="41" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="41" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="41" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="41" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="41" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="41" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="41" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="39" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="41" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="42" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="42" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="43" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="43" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="43" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="43" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="43" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="43" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="43" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="39" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="41" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="41" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="41" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="41" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="42" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="42" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="42" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="42" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="42" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="42" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="44" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="44" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="44" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="44" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="39" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="41" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="41" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="41" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="41" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="42" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="42" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="42" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="42" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="42" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="42" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="39" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="41" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="41" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="41" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="41" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="41" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="41" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="41" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="42" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="42" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="42" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="42" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="42" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="42" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="42" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="42" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="42" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="42" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="39" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="41" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="41" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="41" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="41" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="41" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="41" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="41" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="42" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="42" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="42" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="42" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="42" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="42" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="42" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="42" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="42" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="42" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="39" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="41" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="41" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="41" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="41" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="41" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="41" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="41" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="42" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="42" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="42" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="42" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="42" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="42" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="42" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="42" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="42" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="42" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="39" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="41" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="41" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="41" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="41" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="41" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="41" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="41" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="42" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="42" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="42" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="42" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="42" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="42" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="42" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="42" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="42" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="42" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="39" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="41" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="41" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="41" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="41" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="41" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="41" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="39" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="41" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="41" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="41" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="41" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="41" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="41" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="41" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="42" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="42" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="42" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="42" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="42" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="42" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="42" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="42" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="42" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="42" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="39" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="41" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="41" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="41" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="41" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="41" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="41" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="41" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="41" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="41" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="41" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="41" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="41" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="41" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="41" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="39" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="41" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="41" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="42" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="42" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="42" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="42" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="42" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="42" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="43" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="43" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="45" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="41" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="40" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="40" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="40" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="40" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="40" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="40" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="40" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="40" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="40" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="40" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="40" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="40" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="40" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="40" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="40" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="40" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="40" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="40" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="40" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="40" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="40" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="40" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="40" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="40" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="40" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="40" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="40" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="40" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="40" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="40" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="40" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="40" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="40" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="40" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="40" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="40" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="40" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="40" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="40" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="40" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="40" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="40" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="40" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="40" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="40" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="40" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="40" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="40" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="40" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="40" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="40" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="40" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="40" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="40" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="40" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="40" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="40" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="40" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="40" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="40" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="40" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="40" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="40" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="40" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="40" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="40" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="41" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="45" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="41" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="40" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="40" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="40" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="40" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="40" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="40" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="40" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="40" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="40" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="45" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="40" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="40" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="40" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="40" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="40" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="40" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="40" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="40" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="40" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="40" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="40" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="40" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="45" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="40" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="40" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="40" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="40" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="40" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="40" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="40" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="40" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="40" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="40" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="40" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="40" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="40" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="40" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="40" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="40" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="40" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="40" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="40" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="40" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="40" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="40" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="40" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="40" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="40" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="40" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="40" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="40" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="46" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="40" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="40" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="40" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="40" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="40" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="40" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="40" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="40" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="40" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="40" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="40" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="40" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="40" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="40" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="40" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="40" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="40" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="40" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="40" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="40" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="40" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="40" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="40" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="40" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="40" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="46" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="40" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="40" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="40" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="40" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="40" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="40" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="40" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="40" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="40" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="40" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="40" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="40" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="40" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="40" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="40" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="40" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="40" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="40" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="40" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="40" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="40" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="40" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="40" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="46" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="41" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="41" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="41" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="41" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="41" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="46" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="40" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="40" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="40" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="40" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="40" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="40" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="40" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="40" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="40" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="40" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="40" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="40" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="40" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="40" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="40" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="40" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="46" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="40" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="40" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="40" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="40" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="40" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="40" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="46" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="40" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="40" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="40" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="40" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="40" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="40" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="46" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="40" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="40" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="40" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="40" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="40" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="40" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="40" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="40" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="40" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="40" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="40" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="40" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="40" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="40" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="40" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="40" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="40" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="40" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="40" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="40" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="40" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="40" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="40" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="40" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="40" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="40" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="40" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="40" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="40" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="40" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="40" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="40" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="40" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="40" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="40" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="46" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="41" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="41" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="41" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="41" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="41" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="41" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="41" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="41" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="41" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="41" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="41" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="41" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="41" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="41" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="41" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="41" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="41" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="41" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="41" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="41" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="41" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="41" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="41" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="41" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="41" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="41" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="41" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="41" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="41" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="41" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="41" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="41" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="41" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="41" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="41" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="41" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="41" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="41" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="41" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="41" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="41" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="41" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="41" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="41" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="41" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="41" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="41" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="41" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="41" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="41" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="41" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="41" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="41" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="41" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="41" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="46" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="40" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="40" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="40" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="40" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="40" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="40" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="40" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="40" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="40" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="40" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="40" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="40" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="40" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="40" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="40" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="40" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="40" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="40" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="40" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="40" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="40" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="46" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="40" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="40" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="40" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="40" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="40" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="40" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="40" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="40" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="40" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="40" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="40" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="40" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="40" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="40" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="40" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="40" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="46" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="40" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="40" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="46" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="47" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="47" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="47" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="47" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="47" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="47" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="46" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="40" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="46" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="43" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="46" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="40" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="40" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="43" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="43" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="43" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="43" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="43" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="43" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="43" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="43" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="43" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="46" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="40" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="40" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="40" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="46" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="40" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="40" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="40" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="40" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="40" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="46" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="40" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="40" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="40" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="40" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="40" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="40" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="40" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="40" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="40" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="46" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="40" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="40" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="40" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="40" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="40" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="40" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="40" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="40" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="40" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="40" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="40" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="40" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="40" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="40" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="40" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="40" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="40" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="40" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="40" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="40" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="46" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="40" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="40" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="40" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="40" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="40" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="40" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="46" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="43" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="43" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="43" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="43" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="43" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="43" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="46" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A740" s="40" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="40" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="40" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="40" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="40" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="40" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="40" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="40" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="40" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="40" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="40" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="46" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="40" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="40" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="40" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="40" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="40" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="46" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="40" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="40" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="40" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="40" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="40" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="40" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="40" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="40" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="40" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="40" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="40" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="40" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="40" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="46" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="40" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="40" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="40" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="40" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="40" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="40" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="40" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="40" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="40" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="40" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="40" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="40" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="40" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="40" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="40" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="40" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="40" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="40" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="40" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="40" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="40" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="40" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="40" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="40" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="40" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="46" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="40" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="40" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="40" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="40" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="43" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="43" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="43" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="43" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="43" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="43" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="46" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="43" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="43" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="43" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="43" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="40" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="40" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="40" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="40" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="40" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="40" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="46" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="40" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="40" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="40" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="40" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="40" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="46" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="43" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="43" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="43" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="43" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="43" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="46" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="43" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="43" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="43" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="43" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="43" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="46" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="43" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="43" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="43" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="43" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="43" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="843" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="46" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="43" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="43" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="43" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="43" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="43" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="46" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="43" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="43" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="43" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="43" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="43" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="43" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="43" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="43" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="43" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="43" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="860" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="46" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="43" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="43" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="43" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="43" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="43" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="43" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="43" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="43" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="43" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="43" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="46" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="43" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="43" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="43" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="43" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="43" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="43" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="43" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="43" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="43" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="43" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="43" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="43" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="43" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="885" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="43" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="43" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="887" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="43" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="43" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="46" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="41" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="41" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="41" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="41" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="41" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="46" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="40" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="40" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="40" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="40" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="40" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="40" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="40" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="40" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="46" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="43" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="43" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="43" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="43" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="46" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="40" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="40" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="40" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="46" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="40" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="40" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="40" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="40" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="40" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="40" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="40" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="40" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="40" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="40" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="40" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="40" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="46" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="43" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="43" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="43" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="43" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="43" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="43" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="43" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="43" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="43" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="43" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="43" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="43" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="46" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="43" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="43" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="43" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="43" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="43" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="43" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="43" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="43" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="43" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="43" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="950" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="43" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="951" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="43" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="46" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="40" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="40" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="40" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="40" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="40" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="40" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="40" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="960" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="46" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
     </row>
     <row r="961" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="40" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="962" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="43" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="963" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="43" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="964" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="43" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="965" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="43" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="966" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="43" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="967" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="43" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="968" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="43" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="43" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="970" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="43" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="971" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="43" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="972" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="43" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="973" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="43" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="974" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="43" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="975" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="43" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="976" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="43" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="977" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="43" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="978" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="43" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="46" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="40" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="40" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="982" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="46" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="40" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="40" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="40" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="40" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="40" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="40" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="40" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="40" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="40" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="40" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="40" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="40" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="40" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="40" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="40" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="40" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="40" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="46" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="40" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="40" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="40" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="40" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="40" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="46" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="40" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="40" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="40" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="40" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="40" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="40" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="40" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="40" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="40" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="40" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="40" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="40" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="46" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="40" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="40" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="40" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="40" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="40" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="40" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="40" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="40" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="40" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="40" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="40" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="40" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="40" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="40" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="46" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
     </row>
     <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1035" s="40" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="1036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1036" s="40" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="1037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1037" s="40" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="40" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="1039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1039" s="40" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="1040" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1040" s="46" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
     </row>
     <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="40" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="1042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1042" s="40" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="1043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1043" s="40" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="1044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1044" s="40" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="1045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1045" s="40" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="1046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1046" s="40" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="1047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1047" s="40" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="1048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1048" s="40" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="1049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1049" s="40" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1050" s="40" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="1051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1051" s="40" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="1052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1052" s="40" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="1053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1053" s="40" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="1054" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1054" s="46" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="1055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1055" s="40" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="1056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1056" s="40" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1057" s="40" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="1058" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="43" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="1059" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="43" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="1060" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1060" s="46" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1061" s="43" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1062" s="43" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="1063" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1063" s="38" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="1064" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1064" s="38" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="1065" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1065" s="38" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="1066" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1066" s="38" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="1067" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1067" s="38" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="1068" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1068" s="38" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1069" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1069" s="38" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="1070" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1070" s="38" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="1071" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1071" s="38" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="1072" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1072" s="38" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="1073" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1073" s="46" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="1074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1074" s="40" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="1075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1075" s="40" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="1076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1076" s="40" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
     </row>
     <row r="1077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1077" s="40" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="1078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1078" s="40" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="1079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1079" s="40" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="1080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1080" s="40" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="1081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1081" s="40" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="40" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="1083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1083" s="40" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="1084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1084" s="40" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="1085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1085" s="40" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="1086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1086" s="40" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1087" s="40" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="1088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1088" s="40" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="1089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1089" s="40" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="1090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1090" s="40" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1091" s="40" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="1092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1092" s="40" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="1093" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1093" s="46" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="1094" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1094" s="43" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="1095" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1095" s="43" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="1096" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1096" s="43" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="1097" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1097" s="43" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="1098" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1098" s="43" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="1099" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1099" s="43" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="1100" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1100" s="43" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="1101" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1101" s="43" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="1102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1102" s="43" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1103" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1103" s="46" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1104" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1104" s="43" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="1105" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1105" s="43" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="1106" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="43" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="1107" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1107" s="43" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="1108" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1108" s="43" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="1109" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1109" s="43" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="1110" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1110" s="43" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="1111" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1111" s="43" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="1112" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1112" s="43" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1113" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1113" s="46" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="1114" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1114" s="43" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="1115" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1115" s="43" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="1116" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1116" s="43" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="1117" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1117" s="43" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="1118" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1118" s="43" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="1119" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1119" s="43" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="1120" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1120" s="43" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="1121" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1121" s="43" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="1122" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1122" s="43" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1123" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1123" s="46" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="1124" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1124" s="43" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
     </row>
     <row r="1125" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1125" s="43" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="1126" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1126" s="43" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="1127" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1127" s="43" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="1128" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1128" s="43" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="1129" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1129" s="43" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="1130" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1130" s="43" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="1131" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1131" s="43" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1132" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1132" s="43" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="1133" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1133" s="43" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1134" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1134" s="43" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="1135" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1135" s="43" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="1136" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1136" s="46" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1137" s="40" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="1138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1138" s="40" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
     </row>
     <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="40" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="1140" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1140" s="46" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="40" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="1142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1142" s="40" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="1143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1143" s="40" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="1144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1144" s="40" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="1145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1145" s="40" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="1146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1146" s="40" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="1147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1147" s="40" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="1148" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1148" s="46" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
     </row>
     <row r="1149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1149" s="40" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1150" s="40" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="1151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1151" s="40" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="1152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1152" s="40" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="1153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1153" s="40" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1154" s="40" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1155" s="40" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="1156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1156" s="40" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1157" s="40" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1158" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1158" s="46" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1159" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1159" s="43" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1160" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1160" s="43" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="1161" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1161" s="43" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="1162" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="43" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="1163" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1163" s="43" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1164" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1164" s="43" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1165" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1165" s="43" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="1166" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1166" s="43" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1167" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1167" s="43" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1168" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1168" s="46" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1169" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1169" s="43" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1170" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1170" s="43" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="1171" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1171" s="43" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="1172" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1172" s="43" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="1173" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="43" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1174" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1174" s="43" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1175" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1175" s="43" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="1176" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1176" s="43" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1177" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1177" s="43" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1178" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1178" s="46" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1179" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1179" s="43" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
     </row>
     <row r="1180" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1180" s="43" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="1181" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1181" s="43" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="1182" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1182" s="43" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="1183" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1183" s="43" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="1184" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1184" s="43" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="1185" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1185" s="43" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="1186" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1186" s="43" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1187" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1187" s="43" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="1188" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1188" s="43" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1189" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1189" s="43" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="1190" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1190" s="43" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="1191" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="46" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1192" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1192" s="43" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="1193" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1193" s="43" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="1194" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1194" s="43" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="1195" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1195" s="43" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="1196" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1196" s="43" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="1197" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1197" s="43" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="1198" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1198" s="43" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="1199" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1199" s="43" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="1200" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1200" s="43" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="1201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1201" s="43" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1202" s="43" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="1203" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1203" s="43" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="1204" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1204" s="43" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="1205" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1205" s="43" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="1206" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1206" s="46" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1207" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1207" s="43" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="1208" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1208" s="43" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="1209" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1209" s="43" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="1210" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1210" s="43" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="1211" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1211" s="43" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="1212" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1212" s="43" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="1213" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1213" s="43" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="1214" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1214" s="43" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="1215" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1215" s="43" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="1216" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1216" s="43" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1217" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1217" s="43" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="1218" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1218" s="43" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="1219" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1219" s="43" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="1220" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1220" s="43" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="1221" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1221" s="46" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
     </row>
     <row r="1222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1222" s="40" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="1223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1223" s="40" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="1224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1224" s="40" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="1225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1225" s="40" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="1226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1226" s="40" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="1227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1227" s="40" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1228" s="40" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1229" s="40" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="1230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1230" s="40" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="1231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1231" s="40" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="1232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1232" s="40" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="1233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1233" s="40" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="1234" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1234" s="46" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="1235" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1235" s="43" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="1236" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1236" s="43" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="1237" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1237" s="43" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="1238" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1238" s="43" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="1239" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1239" s="43" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="1240" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1240" s="43" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1241" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1241" s="43" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1242" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1242" s="43" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="1243" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1243" s="43" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="1244" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1244" s="43" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="1245" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1245" s="43" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="1246" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1246" s="43" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
   </sheetData>

--- a/app/download_dir/одежда_по каждому размеру.xlsx
+++ b/app/download_dir/одежда_по каждому размеру.xlsx
@@ -125,7 +125,7 @@
     <t xml:space="preserve">здесь ничего заполнять не нужно,. После внесения всех остальных колонок проверьте правильность заполнения данной колонки</t>
   </si>
   <si>
-    <t xml:space="preserve">Укажите торговую марку или бренд. Если ничего нет т укажите "Без торгового знака"</t>
+    <t xml:space="preserve">Укажите торговую марку или бренд. Если ничего нет т укажите "Без товарного знака"</t>
   </si>
   <si>
     <t xml:space="preserve">не заполнять</t>
@@ -6252,10 +6252,10 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1648" activeCellId="0" sqref="F1648"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="73.33"/>
@@ -19556,7 +19556,7 @@
       <selection pane="topLeft" activeCell="D83" activeCellId="0" sqref="D83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50"/>
@@ -23011,7 +23011,7 @@
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.4"/>
@@ -23720,7 +23720,7 @@
       <selection pane="topLeft" activeCell="A751" activeCellId="0" sqref="A751"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="242.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="243.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>

--- a/app/download_dir/одежда_по каждому размеру.xlsx
+++ b/app/download_dir/одежда_по каждому размеру.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="999">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -1396,7 +1396,7 @@
     <t xml:space="preserve">110-116</t>
   </si>
   <si>
-    <t xml:space="preserve">МАЛАЙЗИЯ</t>
+    <t xml:space="preserve">МАЛАЙЗИИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">116-122</t>
@@ -1693,133 +1693,136 @@
     <t xml:space="preserve">ОГ-ОБ</t>
   </si>
   <si>
+    <t xml:space="preserve">РЕСПУБЛИКА МАКЕДОНИЯ, БЫВШАЯ ЮГОСЛАВСКАЯ РЕСПУБЛИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОТ-ОБ</t>
+  </si>
+  <si>
     <t xml:space="preserve">РЕЮНЬОН</t>
   </si>
   <si>
-    <t xml:space="preserve">ОТ-ОБ</t>
-  </si>
-  <si>
     <t xml:space="preserve">ОШ-ДЛИНА РУКАВА</t>
   </si>
   <si>
+    <t xml:space="preserve">РОССИЙСКАЯ ФЕДЕРАЦИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОШ-ОГ-ОТ</t>
+  </si>
+  <si>
     <t xml:space="preserve">РУАНДА</t>
   </si>
   <si>
-    <t xml:space="preserve">ОШ-ОГ-ОТ</t>
+    <t xml:space="preserve">ОГ-ОТ-ОБ</t>
   </si>
   <si>
     <t xml:space="preserve">РУМЫНИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ОГ-ОТ-ОБ</t>
+    <t xml:space="preserve">ОГ-ОБХВАТ ПОД ГРУДЬЮ</t>
   </si>
   <si>
     <t xml:space="preserve">САЛЬВАДОР</t>
   </si>
   <si>
-    <t xml:space="preserve">ОГ-ОБХВАТ ПОД ГРУДЬЮ</t>
+    <t xml:space="preserve">РОСТ-ОШ</t>
   </si>
   <si>
     <t xml:space="preserve">САМОА</t>
   </si>
   <si>
-    <t xml:space="preserve">РОСТ-ОШ</t>
+    <t xml:space="preserve">РОСТ-ОГ</t>
   </si>
   <si>
     <t xml:space="preserve">САН-МАРИНО</t>
   </si>
   <si>
-    <t xml:space="preserve">РОСТ-ОГ</t>
+    <t xml:space="preserve">РОСТ-ОТ</t>
   </si>
   <si>
     <t xml:space="preserve">САН-ТОМЕ И ПРИНСИПИ</t>
   </si>
   <si>
-    <t xml:space="preserve">РОСТ-ОТ</t>
+    <t xml:space="preserve">РОСТ-ОБ</t>
   </si>
   <si>
     <t xml:space="preserve">САУДОВСКАЯ АРАВИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">РОСТ-ОБ</t>
+    <t xml:space="preserve">РОСТ-ОШ-ДЛИНА РУКИ</t>
   </si>
   <si>
     <t xml:space="preserve">СВАЗИЛЕНД</t>
   </si>
   <si>
-    <t xml:space="preserve">РОСТ-ОШ-ДЛИНА РУКИ</t>
+    <t xml:space="preserve">РОСТ-ОШ-ОГ</t>
   </si>
   <si>
     <t xml:space="preserve">СЕВЕРНЫЕ МАРИАНСКИЕ ОСТРОВА</t>
   </si>
   <si>
-    <t xml:space="preserve">РОСТ-ОШ-ОГ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕЙШЕЛЬСКИЕ ОСТРОВА</t>
-  </si>
-  <si>
     <t xml:space="preserve">РОСТ-ОШ-ОТ</t>
   </si>
   <si>
-    <t xml:space="preserve">СЕН-БАРТЕЛЕМИ</t>
+    <t xml:space="preserve">СЕЙШЕЛЬСКИЕ ОСТОРВА</t>
   </si>
   <si>
     <t xml:space="preserve">РОСТ-ОШ-ОБ</t>
   </si>
   <si>
-    <t xml:space="preserve">СЕН-МАРТЕН</t>
+    <t xml:space="preserve">СЕН-ПЬЕР И МИКЕЛОН</t>
   </si>
   <si>
     <t xml:space="preserve">РОСТ-ОГ-ОТ</t>
   </si>
   <si>
-    <t xml:space="preserve">СЕН-ПЬЕР И МИКЕЛОН</t>
+    <t xml:space="preserve">СЕНЕГАЛ</t>
   </si>
   <si>
     <t xml:space="preserve">РОСТ-ОГ-ОБ</t>
   </si>
   <si>
-    <t xml:space="preserve">СЕНЕГАЛ</t>
+    <t xml:space="preserve">СЕНТ-ВИНСЕНТ И ГРЕНАДИНЫ</t>
   </si>
   <si>
     <t xml:space="preserve">РОСТ-ОТ-ОБ</t>
   </si>
   <si>
-    <t xml:space="preserve">СЕНТ-ВИНСЕНТ И ГРЕНАДИНЫ</t>
+    <t xml:space="preserve">СЕНТ-КИТТС И НЕВИС</t>
   </si>
   <si>
     <t xml:space="preserve">РОСТ-ОШ-ОГ-ОТ</t>
   </si>
   <si>
-    <t xml:space="preserve">СЕНТ-КИТС И НЕВИС</t>
+    <t xml:space="preserve">СЕНТ-ЛЮСИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">РОСТ-ОГ-ОТ-ОБ</t>
   </si>
   <si>
-    <t xml:space="preserve">СЕНТ-ЛЮСИЯ</t>
-  </si>
-  <si>
     <t xml:space="preserve">СЕРБИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">СИНГАПУР</t>
   </si>
   <si>
-    <t xml:space="preserve">СИРИЙСКАЯ АРАБСКАЯ РЕСПУБЛИКА</t>
+    <t xml:space="preserve">СИРИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">СЛОВАКИЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">СЛОВЕНИЯ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Номер Регламента/стандарта</t>
   </si>
   <si>
     <t xml:space="preserve">ТР ТС 007/2011 "О безопасности продукции, предназначенной для детей и подростков"</t>
   </si>
   <si>
-    <t xml:space="preserve">СЛОВЕНИЯ</t>
+    <t xml:space="preserve">СОЕДИНЕННЫЕ ШТАТЫ</t>
   </si>
   <si>
     <t xml:space="preserve">ТР ТС 017/2011 "О безопасности продукции легкой промышленности"</t>
@@ -1852,13 +1855,16 @@
     <t xml:space="preserve">ТАДЖИКИСТАН</t>
   </si>
   <si>
-    <t xml:space="preserve">ТАЙВАНЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТАЙЛАНД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТАНЗАНИЯ</t>
+    <t xml:space="preserve">ТАИЛАНД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТАЙВАНЬ, ПРОВИНЦИЯ КИТАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТАНЗАНИЯ, ОБЪЕДИНЕННАЯ РЕСПУБЛИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕРКС И КАЙКОС</t>
   </si>
   <si>
     <t xml:space="preserve">ТОГО</t>
@@ -1879,7 +1885,7 @@
     <t xml:space="preserve">ТУНИС</t>
   </si>
   <si>
-    <t xml:space="preserve">ТУРКМЕНИСТАН</t>
+    <t xml:space="preserve">ТУРКМЕНИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">ТУРЦИЯ</t>
@@ -1924,10 +1930,13 @@
     <t xml:space="preserve">ФРАНЦУЗСКИЕ ЮЖНЫЕ ТЕРРИТОРИИ</t>
   </si>
   <si>
+    <t xml:space="preserve">ХЕРДА И МАКДОНАЛЬДА ОСТРОВА</t>
+  </si>
+  <si>
     <t xml:space="preserve">ХОРВАТИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ЦЕНТРАЛЬНО-АФРИКАНСКАЯ РЕСПУБЛИКА</t>
+    <t xml:space="preserve">ЦЕНТРАЛЬНОАФРИКАНСКАЯ РЕСПУБЛИКА</t>
   </si>
   <si>
     <t xml:space="preserve">ЧАД</t>
@@ -1948,7 +1957,10 @@
     <t xml:space="preserve">ШВЕЦИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ШРИ-ЛАНКА</t>
+    <t xml:space="preserve">ШПИЦБЕРГЕН И ЯН-МАЙЕН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ШРИ ЛАНКА</t>
   </si>
   <si>
     <t xml:space="preserve">ЭКВАДОР</t>
@@ -1969,7 +1981,10 @@
     <t xml:space="preserve">ЮЖНАЯ АФРИКА</t>
   </si>
   <si>
-    <t xml:space="preserve">ЮЖНАЯ ДЖОРДЖИЯ И ЮЖНЫЕ САНДВИЧЕВЫЕ ОСТРОВА</t>
+    <t xml:space="preserve">ЮЖНАЯ ГЕОРГИЯ И ЮЖНЫЕ САНДВИЧЕВЫ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЮЖНАЯ ОСЕТИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">ЯМАЙКА</t>
@@ -6176,7 +6191,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="73.33"/>
@@ -19473,11 +19488,11 @@
   </sheetPr>
   <dimension ref="A1:J246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50"/>
@@ -22379,7 +22394,7 @@
         <v>554</v>
       </c>
       <c r="I168" s="33" t="s">
-        <v>52</v>
+        <v>555</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22387,10 +22402,10 @@
         <v>66</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I169" s="33" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22398,10 +22413,10 @@
         <v>66</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I170" s="33" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22409,10 +22424,10 @@
         <v>66</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I171" s="33" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22420,10 +22435,10 @@
         <v>66</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I172" s="33" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22431,10 +22446,10 @@
         <v>66</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="I173" s="33" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22442,10 +22457,10 @@
         <v>66</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I174" s="33" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22453,10 +22468,10 @@
         <v>66</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="I175" s="33" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22464,10 +22479,10 @@
         <v>66</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="I176" s="33" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22475,10 +22490,10 @@
         <v>66</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="I177" s="33" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22486,10 +22501,10 @@
         <v>66</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I178" s="33" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22497,10 +22512,10 @@
         <v>66</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="I179" s="33" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22508,10 +22523,10 @@
         <v>66</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="I180" s="33" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22519,10 +22534,10 @@
         <v>66</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I181" s="33" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22530,10 +22545,10 @@
         <v>66</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I182" s="33" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22541,10 +22556,10 @@
         <v>66</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="I183" s="33" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22552,10 +22567,10 @@
         <v>66</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="I184" s="33" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22563,323 +22578,331 @@
         <v>66</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="I185" s="33" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I186" s="33" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I187" s="33" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I188" s="33" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I189" s="33" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I190" s="33" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="I191" s="33" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="I192" s="33" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="I193" s="33" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="I194" s="33" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I195" s="33" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I196" s="33" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I197" s="33" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I198" s="33" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I199" s="33" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I200" s="33" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I201" s="33" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I202" s="33" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I203" s="33" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I204" s="33" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I205" s="33" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I206" s="33" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I207" s="33" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I208" s="33" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I209" s="33" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I210" s="33" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I211" s="33" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I212" s="33" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I213" s="33" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I214" s="33" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I215" s="33" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I216" s="33" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I217" s="33" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I218" s="33" t="s">
-        <v>529</v>
+        <v>628</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I219" s="33" t="s">
-        <v>627</v>
+        <v>529</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I220" s="33" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I221" s="33" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I222" s="33" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I223" s="33" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I224" s="33" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I225" s="33" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I226" s="33" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I227" s="33" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I228" s="33" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I229" s="33" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I230" s="33" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I231" s="33" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I232" s="33" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I233" s="33" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I234" s="33" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I235" s="33" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I236" s="33" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I237" s="33" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I238" s="33" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I239" s="33" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I240" s="33" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I241" s="33" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I242" s="33" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I243" s="33" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I240" s="33"/>
-    </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I241" s="33"/>
-    </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I242" s="33"/>
-    </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I243" s="33"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I244" s="33"/>
@@ -22918,7 +22941,7 @@
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.4"/>
@@ -22927,13 +22950,13 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="9" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22963,7 +22986,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="E5" s="36" t="s">
         <v>477</v>
@@ -22974,7 +22997,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="E6" s="36" t="s">
         <v>479</v>
@@ -23018,7 +23041,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="E10" s="36" t="s">
         <v>487</v>
@@ -23029,7 +23052,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="E11" s="36" t="s">
         <v>489</v>
@@ -23040,7 +23063,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="E12" s="36" t="s">
         <v>492</v>
@@ -23051,7 +23074,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="E13" s="36" t="s">
         <v>495</v>
@@ -23062,7 +23085,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>498</v>
@@ -23073,7 +23096,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="E15" s="36" t="s">
         <v>501</v>
@@ -23084,7 +23107,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="E16" s="36" t="s">
         <v>503</v>
@@ -23095,7 +23118,7 @@
         <v>26</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="E17" s="36" t="s">
         <v>505</v>
@@ -23106,7 +23129,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="E18" s="36" t="s">
         <v>507</v>
@@ -23128,7 +23151,7 @@
         <v>29</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="E20" s="36" t="s">
         <v>512</v>
@@ -23627,7 +23650,7 @@
       <selection pane="topLeft" activeCell="A751" activeCellId="0" sqref="A751"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="243.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="243.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
@@ -23639,6227 +23662,6227 @@
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="38" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="38" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="38" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="38" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="38" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="38" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="38" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="38" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="38" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="38" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="39" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="40" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="40" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="40" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="40" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="40" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="40" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="38" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="38" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="38" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="38" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="38" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="38" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="38" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="38" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="38" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="38" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="39" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="40" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="40" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="40" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="40" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="40" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="40" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="40" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="40" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="40" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="40" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="39" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="41" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="41" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="41" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="41" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="41" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="41" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="41" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="41" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="41" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="41" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="41" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="41" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="41" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="41" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="41" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="41" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="41" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="41" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="41" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="41" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="41" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="41" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="41" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="41" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="41" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="41" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="41" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="41" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="41" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="41" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="41" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="41" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="41" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="39" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="41" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="41" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="41" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="41" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="41" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="42" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="42" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="42" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="42" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="42" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="39" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="41" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="41" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="39" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="41" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="41" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="41" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="41" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="41" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="41" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="41" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="41" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="41" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="41" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="41" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="41" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="41" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="41" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="41" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="41" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="41" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="41" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="41" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="41" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="41" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="41" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="41" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="41" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="41" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="41" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="41" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="41" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="41" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="41" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="41" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="41" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="41" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="41" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="41" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="39" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="41" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="41" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="41" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="41" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="41" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="41" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="41" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="41" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="41" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="41" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="41" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="41" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="41" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="41" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="41" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="41" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="41" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="41" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="41" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="41" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="41" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="41" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="41" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="41" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="41" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="41" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="41" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="41" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="41" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="41" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="41" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="41" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="41" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="39" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="41" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="42" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="42" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="43" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="43" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="43" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="43" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="43" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="43" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="43" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="39" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="41" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="41" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="41" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="41" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="42" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="42" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="42" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="42" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="42" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="42" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="44" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="44" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="44" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="44" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="39" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="41" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="41" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="41" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="41" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="42" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="42" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="42" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="42" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="42" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="42" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="39" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="41" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="41" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="41" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="41" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="41" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="41" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="41" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="42" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="42" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="42" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="42" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="42" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="42" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="42" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="42" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="42" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="42" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="39" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="41" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="41" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="41" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="41" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="41" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="41" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="41" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="42" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="42" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="42" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="42" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="42" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="42" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="42" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="42" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="42" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="42" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="39" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="41" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="41" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="41" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="41" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="41" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="41" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="41" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="42" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="42" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="42" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="42" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="42" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="42" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="42" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="42" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="42" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="42" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="39" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="41" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="41" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="41" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="41" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="41" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="41" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="41" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="42" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="42" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="42" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="42" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="42" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="42" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="42" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="42" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="42" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="42" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="39" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="41" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="41" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="41" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="41" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="41" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="41" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="39" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="41" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="41" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="41" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="41" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="41" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="41" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="41" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="42" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="42" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="42" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="42" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="42" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="42" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="42" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="42" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="42" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="42" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="39" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="41" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="41" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="41" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="41" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="41" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="41" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="41" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="41" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="41" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="41" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="41" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="41" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="41" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="41" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="39" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="41" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="41" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="42" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="42" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="42" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="42" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="42" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="42" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="43" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="43" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="45" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="41" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="40" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="40" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="40" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="40" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="40" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="40" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="40" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="40" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="40" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="40" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="40" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="40" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="40" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="40" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="40" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="40" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="40" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="40" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="40" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="40" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="40" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="40" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="40" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="40" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="40" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="40" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="40" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="40" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="40" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="40" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="40" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="40" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="40" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="40" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="40" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="40" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="40" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="40" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="40" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="40" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="40" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="40" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="40" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="40" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="40" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="40" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="40" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="40" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="40" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="40" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="40" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="40" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="40" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="40" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="40" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="40" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="40" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="40" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="40" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="40" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="40" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="40" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="40" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="40" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="40" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="40" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="41" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="45" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="41" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="40" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="40" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="40" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="40" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="40" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="40" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="40" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="40" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="40" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="45" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="40" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="40" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="40" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="40" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="40" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="40" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="40" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="40" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="40" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="40" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="40" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="40" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="45" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="40" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="40" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="40" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="40" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="40" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="40" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="40" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="40" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="40" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="40" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="40" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="40" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="40" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="40" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="40" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="40" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="40" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="40" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="40" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="40" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="40" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="40" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="40" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="40" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="40" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="40" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="40" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="40" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="46" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="40" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="40" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="40" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="40" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="40" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="40" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="40" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="40" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="40" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="40" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="40" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="40" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="40" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="40" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="40" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="40" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="40" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="40" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="40" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="40" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="40" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="40" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="40" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="40" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="40" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="46" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="40" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="40" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="40" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="40" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="40" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="40" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="40" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="40" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="40" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="40" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="40" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="40" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="40" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="40" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="40" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="40" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="40" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="40" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="40" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="40" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="40" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="40" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="40" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="46" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="41" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="41" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="41" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="41" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="41" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="46" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="40" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="40" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="40" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="40" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="40" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="40" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="40" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="40" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="40" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="40" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="40" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="40" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="40" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="40" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="40" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="40" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="46" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="40" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="40" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="40" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="40" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="40" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="40" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="46" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="40" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="40" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="40" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="40" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="40" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="40" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="46" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="40" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="40" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="40" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="40" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="40" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="40" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="40" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="40" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="40" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="40" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="40" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="40" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="40" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="40" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="40" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="40" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="40" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="40" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="40" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="40" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="40" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="40" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="40" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="40" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="40" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="40" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="40" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="40" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="40" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="40" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="40" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="40" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="40" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="40" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="40" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="46" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="41" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="41" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="41" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="41" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="41" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="41" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="41" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="41" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="41" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="41" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="41" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="41" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="41" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="41" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="41" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="41" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="41" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="41" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="41" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="41" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="41" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="41" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="41" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="41" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="41" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="41" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="41" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="41" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="41" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="41" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="41" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="41" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="41" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="41" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="41" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="41" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="41" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="41" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="41" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="41" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="41" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="41" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="41" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="41" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="41" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="41" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="41" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="41" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="41" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="41" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="41" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="41" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="41" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="41" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="41" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="46" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="40" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="40" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="40" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="40" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="40" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="40" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="40" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="40" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="40" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="40" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="40" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="40" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="40" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="40" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="40" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="40" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="40" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="40" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="40" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="40" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="40" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="46" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="40" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="40" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="40" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="40" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="40" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="40" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="40" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="40" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="40" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="40" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="40" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="40" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="40" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="40" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="40" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="40" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="46" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="40" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="40" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="46" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="47" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="47" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="47" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="47" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="47" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="47" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="46" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="40" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="46" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="43" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="46" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="40" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="40" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="43" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="43" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="43" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="43" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="43" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="43" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="43" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="43" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="43" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="46" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="40" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="40" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="40" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="46" t="s">
-        <v>918</v>
+        <v>923</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="40" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="40" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="40" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="40" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="40" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="46" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="40" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="40" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="40" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="40" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="40" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="40" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="40" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="40" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="40" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="46" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="40" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="40" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="40" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="40" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="40" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="40" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="40" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="40" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="40" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="40" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="40" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="40" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="40" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="40" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="40" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="40" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="40" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="40" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="40" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="40" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="46" t="s">
-        <v>929</v>
+        <v>934</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="40" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="40" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="40" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="40" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="40" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="40" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="46" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="43" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="43" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="43" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="43" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="43" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="43" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="46" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A740" s="40" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="40" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="40" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="40" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="40" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="40" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="40" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="40" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="40" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="40" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="40" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="46" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="40" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="40" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="40" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="40" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="40" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="46" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="40" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="40" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="40" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="40" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="40" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="40" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="40" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="40" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="40" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
     </row>
     <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="40" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="40" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="40" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="40" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="46" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="40" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="40" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="40" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="40" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="40" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="40" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="40" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="40" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="40" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="40" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="40" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="40" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="40" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="40" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="40" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="40" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="40" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="40" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="40" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="40" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="40" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="40" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="40" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="40" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="40" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="46" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="40" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="40" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="40" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="40" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="43" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="43" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="43" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="43" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="43" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="43" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="46" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="43" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="43" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="43" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="43" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="40" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="40" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="40" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="40" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="40" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="40" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="46" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="40" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="40" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="40" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="40" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="40" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="46" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="43" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="43" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="43" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="43" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="43" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="46" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="43" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="43" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="43" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="43" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="43" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="46" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="43" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="43" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="43" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="43" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="43" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
     </row>
     <row r="843" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="46" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="43" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="43" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="43" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="43" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="43" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="46" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="43" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="43" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="43" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="43" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="43" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="43" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="43" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="43" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="43" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="43" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="860" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="46" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="43" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="43" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="43" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="43" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="43" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="43" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="43" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="43" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="43" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="43" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="46" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="43" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="43" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="43" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="43" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="43" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="43" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="43" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="43" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="43" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="43" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="43" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="43" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="43" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="885" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="43" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="43" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="887" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="43" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="43" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="46" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="41" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="41" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="41" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="41" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="41" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="46" t="s">
-        <v>949</v>
+        <v>954</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="40" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="40" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="40" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="40" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="40" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="40" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="40" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="40" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="46" t="s">
-        <v>950</v>
+        <v>955</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="43" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="43" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="43" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="43" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="46" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="40" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="40" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="40" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="46" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="40" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="40" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="40" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="40" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="40" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="40" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="40" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="40" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="40" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="40" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="40" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="40" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="46" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="43" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="43" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="43" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="43" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="43" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="43" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="43" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="43" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="43" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="43" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="43" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="43" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="46" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="43" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="43" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="43" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="43" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="43" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="43" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="43" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="43" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="43" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="43" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="950" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="43" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="951" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="43" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="46" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="40" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="40" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="40" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="40" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="40" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="40" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="40" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
     </row>
     <row r="960" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="46" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
     </row>
     <row r="961" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="40" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
     </row>
     <row r="962" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="43" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="963" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="43" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
     </row>
     <row r="964" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="43" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
     </row>
     <row r="965" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="43" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
     </row>
     <row r="966" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="43" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="967" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="43" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
     </row>
     <row r="968" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="43" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="43" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="970" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="43" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="971" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="43" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="972" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="43" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="973" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="43" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="974" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="43" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="975" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="43" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="976" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="43" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="977" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="43" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="978" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="43" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="46" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="40" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="40" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
     </row>
     <row r="982" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="46" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="40" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="40" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="40" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="40" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="40" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="40" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="40" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="40" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="40" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="40" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="40" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="40" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="40" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="40" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="40" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="40" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="40" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="46" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="40" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="40" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="40" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="40" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="40" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="46" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="40" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="40" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="40" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="40" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="40" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="40" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="40" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="40" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="40" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="40" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="40" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="40" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="46" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="40" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="40" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="40" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
     </row>
     <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="40" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="40" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="40" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="40" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="40" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="40" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="40" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="40" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="40" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="40" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="40" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="46" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
     </row>
     <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1035" s="40" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
     </row>
     <row r="1036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1036" s="40" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
     </row>
     <row r="1037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1037" s="40" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
     </row>
     <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="40" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
     </row>
     <row r="1039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1039" s="40" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
     </row>
     <row r="1040" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1040" s="46" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="40" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="1042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1042" s="40" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
     </row>
     <row r="1043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1043" s="40" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
     </row>
     <row r="1044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1044" s="40" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1045" s="40" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="1046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1046" s="40" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="1047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1047" s="40" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="1048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1048" s="40" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="1049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1049" s="40" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="1050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1050" s="40" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="1051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1051" s="40" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="1052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1052" s="40" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="1053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1053" s="40" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="1054" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1054" s="46" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
     </row>
     <row r="1055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1055" s="40" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
     </row>
     <row r="1056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1056" s="40" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1057" s="40" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
     </row>
     <row r="1058" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="43" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
     </row>
     <row r="1059" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="43" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
     </row>
     <row r="1060" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1060" s="46" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1061" s="43" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1062" s="43" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
     </row>
     <row r="1063" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1063" s="38" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1064" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1064" s="38" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="1065" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1065" s="38" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="1066" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1066" s="38" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="1067" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1067" s="38" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="1068" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1068" s="38" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="1069" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1069" s="38" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="1070" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1070" s="38" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="1071" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1071" s="38" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="1072" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1072" s="38" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="1073" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1073" s="46" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1074" s="40" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
     </row>
     <row r="1075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1075" s="40" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
     </row>
     <row r="1076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1076" s="40" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
     </row>
     <row r="1077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1077" s="40" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
     </row>
     <row r="1078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1078" s="40" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
     </row>
     <row r="1079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1079" s="40" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
     </row>
     <row r="1080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1080" s="40" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
     </row>
     <row r="1081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1081" s="40" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="40" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="1083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1083" s="40" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="1084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1084" s="40" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="1085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1085" s="40" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="1086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1086" s="40" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="1087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1087" s="40" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
     </row>
     <row r="1088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1088" s="40" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
     </row>
     <row r="1089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1089" s="40" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1090" s="40" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
     </row>
     <row r="1091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1091" s="40" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1092" s="40" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1093" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1093" s="46" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
     </row>
     <row r="1094" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1094" s="43" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
     </row>
     <row r="1095" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1095" s="43" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
     </row>
     <row r="1096" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1096" s="43" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
     </row>
     <row r="1097" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1097" s="43" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1098" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1098" s="43" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="1099" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1099" s="43" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="1100" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1100" s="43" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="1101" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1101" s="43" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="1102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1102" s="43" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="1103" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1103" s="46" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
     </row>
     <row r="1104" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1104" s="43" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
     </row>
     <row r="1105" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1105" s="43" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
     </row>
     <row r="1106" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="43" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
     </row>
     <row r="1107" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1107" s="43" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1108" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1108" s="43" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="1109" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1109" s="43" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="1110" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1110" s="43" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="1111" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1111" s="43" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="1112" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1112" s="43" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="1113" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1113" s="46" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1114" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1114" s="43" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
     </row>
     <row r="1115" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1115" s="43" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
     </row>
     <row r="1116" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1116" s="43" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
     </row>
     <row r="1117" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1117" s="43" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1118" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1118" s="43" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="1119" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1119" s="43" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="1120" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1120" s="43" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="1121" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1121" s="43" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="1122" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1122" s="43" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="1123" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1123" s="46" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
     </row>
     <row r="1124" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1124" s="43" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
     </row>
     <row r="1125" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1125" s="43" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
     </row>
     <row r="1126" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1126" s="43" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1127" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1127" s="43" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="1128" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1128" s="43" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="1129" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1129" s="43" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="1130" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1130" s="43" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="1131" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1131" s="43" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="1132" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1132" s="43" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1133" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1133" s="43" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
     </row>
     <row r="1134" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1134" s="43" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1135" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1135" s="43" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1136" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1136" s="46" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
     </row>
     <row r="1137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1137" s="40" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
     </row>
     <row r="1138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1138" s="40" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
     </row>
     <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="40" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
     </row>
     <row r="1140" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1140" s="46" t="s">
-        <v>976</v>
+        <v>981</v>
       </c>
     </row>
     <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="40" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
     </row>
     <row r="1142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1142" s="40" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
     </row>
     <row r="1143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1143" s="40" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
     </row>
     <row r="1144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1144" s="40" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="1145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1145" s="40" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="1146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1146" s="40" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
     </row>
     <row r="1147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1147" s="40" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
     </row>
     <row r="1148" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1148" s="46" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1149" s="40" t="s">
-        <v>978</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1150" s="40" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
     </row>
     <row r="1151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1151" s="40" t="s">
-        <v>980</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1152" s="40" t="s">
-        <v>981</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1153" s="40" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1154" s="40" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1155" s="40" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1156" s="40" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1157" s="40" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1158" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1158" s="46" t="s">
-        <v>987</v>
+        <v>992</v>
       </c>
     </row>
     <row r="1159" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1159" s="43" t="s">
-        <v>978</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1160" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1160" s="43" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
     </row>
     <row r="1161" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1161" s="43" t="s">
-        <v>980</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1162" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="43" t="s">
-        <v>981</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1163" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1163" s="43" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1164" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1164" s="43" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1165" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1165" s="43" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1166" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1166" s="43" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1167" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1167" s="43" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1168" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1168" s="46" t="s">
-        <v>988</v>
+        <v>993</v>
       </c>
     </row>
     <row r="1169" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1169" s="43" t="s">
-        <v>978</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1170" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1170" s="43" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
     </row>
     <row r="1171" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1171" s="43" t="s">
-        <v>980</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1172" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1172" s="43" t="s">
-        <v>981</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1173" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="43" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1174" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1174" s="43" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1175" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1175" s="43" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1176" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1176" s="43" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1177" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1177" s="43" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1178" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1178" s="46" t="s">
-        <v>989</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1179" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1179" s="43" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
     </row>
     <row r="1180" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1180" s="43" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
     </row>
     <row r="1181" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1181" s="43" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1182" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1182" s="43" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="1183" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1183" s="43" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="1184" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1184" s="43" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="1185" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1185" s="43" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="1186" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1186" s="43" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="1187" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1187" s="43" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1188" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1188" s="43" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
     </row>
     <row r="1189" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1189" s="43" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1190" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1190" s="43" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1191" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="46" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
     </row>
     <row r="1192" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1192" s="43" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
     </row>
     <row r="1193" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1193" s="43" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="1194" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1194" s="43" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
     </row>
     <row r="1195" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1195" s="43" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="1196" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1196" s="43" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1197" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1197" s="43" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="1198" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1198" s="43" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="1199" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1199" s="43" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="1200" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1200" s="43" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="1201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1201" s="43" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="1202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1202" s="43" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="1203" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1203" s="43" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="1204" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1204" s="43" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="1205" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1205" s="43" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="1206" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1206" s="46" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1207" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1207" s="43" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
     </row>
     <row r="1208" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1208" s="43" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="1209" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1209" s="43" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
     </row>
     <row r="1210" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1210" s="43" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="1211" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1211" s="43" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1212" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1212" s="43" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="1213" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1213" s="43" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="1214" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1214" s="43" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="1215" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1215" s="43" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="1216" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1216" s="43" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="1217" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1217" s="43" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="1218" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1218" s="43" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="1219" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1219" s="43" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="1220" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1220" s="43" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="1221" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1221" s="46" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
     </row>
     <row r="1222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1222" s="40" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1223" s="40" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="1224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1224" s="40" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="1225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1225" s="40" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="1226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1226" s="40" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="1227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1227" s="40" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="1228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1228" s="40" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="1229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1229" s="40" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="1230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1230" s="40" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1231" s="40" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
     </row>
     <row r="1232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1232" s="40" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
     </row>
     <row r="1233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1233" s="40" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
     </row>
     <row r="1234" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1234" s="46" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
     </row>
     <row r="1235" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1235" s="43" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1236" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1236" s="43" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="1237" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1237" s="43" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="1238" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1238" s="43" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="1239" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1239" s="43" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="1240" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1240" s="43" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="1241" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1241" s="43" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="1242" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1242" s="43" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="1243" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1243" s="43" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1244" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1244" s="43" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
     </row>
     <row r="1245" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1245" s="43" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
     </row>
     <row r="1246" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1246" s="43" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
     </row>
   </sheetData>

--- a/app/download_dir/одежда_по каждому размеру.xlsx
+++ b/app/download_dir/одежда_по каждому размеру.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="998">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -1240,7 +1240,7 @@
     <t xml:space="preserve">80-82</t>
   </si>
   <si>
-    <t xml:space="preserve">КОРЕЯ, ДЕМОКРАТИЧЕСКАЯ НАРОДНАЯ РЕСПУБЛИКА</t>
+    <t xml:space="preserve">СЕВЕРНАЯ КОРЕЯ</t>
   </si>
   <si>
     <t xml:space="preserve">СИНЕ-ЗЕЛЕНЫЙ</t>
@@ -1687,7 +1687,7 @@
     <t xml:space="preserve">ОГ-ОТ</t>
   </si>
   <si>
-    <t xml:space="preserve">РЕСПУБЛИКА КОРЕЯ</t>
+    <t xml:space="preserve">ЮЖНАЯ КОРЕЯ</t>
   </si>
   <si>
     <t xml:space="preserve">ОГ-ОБ</t>
@@ -1820,9 +1820,6 @@
   </si>
   <si>
     <t xml:space="preserve">ТР ТС 007/2011 "О безопасности продукции, предназначенной для детей и подростков"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СОЕДИНЕННЫЕ ШТАТЫ</t>
   </si>
   <si>
     <t xml:space="preserve">ТР ТС 017/2011 "О безопасности продукции легкой промышленности"</t>
@@ -6191,7 +6188,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="73.33"/>
@@ -19492,7 +19489,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50"/>
@@ -22612,7 +22609,7 @@
         <v>595</v>
       </c>
       <c r="I190" s="33" t="s">
-        <v>596</v>
+        <v>527</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22620,10 +22617,10 @@
         <v>594</v>
       </c>
       <c r="B191" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="I191" s="33" t="s">
         <v>597</v>
-      </c>
-      <c r="I191" s="33" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22631,10 +22628,10 @@
         <v>594</v>
       </c>
       <c r="B192" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="I192" s="33" t="s">
         <v>599</v>
-      </c>
-      <c r="I192" s="33" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22642,10 +22639,10 @@
         <v>594</v>
       </c>
       <c r="B193" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="I193" s="33" t="s">
         <v>601</v>
-      </c>
-      <c r="I193" s="33" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22653,130 +22650,130 @@
         <v>594</v>
       </c>
       <c r="B194" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="I194" s="33" t="s">
         <v>603</v>
-      </c>
-      <c r="I194" s="33" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I195" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I196" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I197" s="33" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I198" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I199" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I200" s="33" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I201" s="33" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I202" s="33" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I203" s="33" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I204" s="33" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I205" s="33" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I206" s="33" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I207" s="33" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I208" s="33" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I209" s="33" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I210" s="33" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I211" s="33" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I212" s="33" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I213" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I214" s="33" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I215" s="33" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I216" s="33" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I217" s="33" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I218" s="33" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22786,117 +22783,117 @@
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I220" s="33" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I221" s="33" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I222" s="33" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I223" s="33" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I224" s="33" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I225" s="33" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I226" s="33" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I227" s="33" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I228" s="33" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I229" s="33" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I230" s="33" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I231" s="33" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I232" s="33" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I233" s="33" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I234" s="33" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I235" s="33" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I236" s="33" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I237" s="33" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I238" s="33" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I239" s="33" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I240" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I241" s="33" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I242" s="33" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22941,7 +22938,7 @@
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.4"/>
@@ -22950,13 +22947,13 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>653</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22986,7 +22983,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E5" s="36" t="s">
         <v>477</v>
@@ -22997,7 +22994,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E6" s="36" t="s">
         <v>479</v>
@@ -23041,7 +23038,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E10" s="36" t="s">
         <v>487</v>
@@ -23052,7 +23049,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E11" s="36" t="s">
         <v>489</v>
@@ -23063,7 +23060,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E12" s="36" t="s">
         <v>492</v>
@@ -23074,7 +23071,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E13" s="36" t="s">
         <v>495</v>
@@ -23085,7 +23082,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>498</v>
@@ -23096,7 +23093,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E15" s="36" t="s">
         <v>501</v>
@@ -23107,7 +23104,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E16" s="36" t="s">
         <v>503</v>
@@ -23118,7 +23115,7 @@
         <v>26</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E17" s="36" t="s">
         <v>505</v>
@@ -23129,7 +23126,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E18" s="36" t="s">
         <v>507</v>
@@ -23151,7 +23148,7 @@
         <v>29</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E20" s="36" t="s">
         <v>512</v>
@@ -23650,7 +23647,7 @@
       <selection pane="topLeft" activeCell="A751" activeCellId="0" sqref="A751"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="243.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="244.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
@@ -23662,6227 +23659,6227 @@
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="38" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="38" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="38" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="38" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="38" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="38" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="38" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="38" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="38" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="38" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="39" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="40" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="40" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="40" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="40" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="40" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="40" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="38" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="38" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="38" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="38" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="38" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="38" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="38" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="38" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="38" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="38" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="39" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="40" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="40" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="40" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="40" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="40" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="40" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="40" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="40" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="40" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="40" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="39" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="41" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="41" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="41" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="41" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="41" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="41" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="41" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="41" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="41" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="41" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="41" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="41" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="41" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="41" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="41" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="41" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="41" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="41" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="41" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="41" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="41" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="41" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="41" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="41" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="41" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="41" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="41" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="41" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="41" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="41" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="41" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="41" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="41" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="39" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="41" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="41" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="41" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="41" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="41" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="42" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="42" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="42" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="42" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="42" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="39" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="41" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="41" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="39" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="41" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="41" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="41" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="41" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="41" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="41" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="41" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="41" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="41" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="41" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="41" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="41" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="41" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="41" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="41" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="41" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="41" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="41" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="41" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="41" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="41" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="41" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="41" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="41" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="41" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="41" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="41" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="41" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="41" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="41" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="41" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="41" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="41" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="41" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="41" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="41" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="41" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="41" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="41" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="41" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="41" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="41" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="41" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="41" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="41" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="41" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="41" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="41" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="41" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="41" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="41" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="41" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="41" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="41" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="41" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="41" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="41" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="41" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="41" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="41" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="41" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="41" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="41" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="41" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="41" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="41" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="41" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="41" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="39" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="41" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="42" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="42" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="43" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="43" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="43" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="43" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="43" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="43" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="43" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="39" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="41" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="41" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="41" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="41" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="42" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="42" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="42" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="42" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="42" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="42" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="44" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="44" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="44" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="44" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="39" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="41" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="41" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="41" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="41" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="42" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="42" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="42" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="42" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="42" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="42" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="39" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="41" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="41" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="41" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="41" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="41" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="41" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="41" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="42" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="42" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="42" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="42" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="42" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="42" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="42" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="42" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="42" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="42" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="39" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="41" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="41" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="41" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="41" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="41" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="41" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="41" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="42" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="42" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="42" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="42" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="42" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="42" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="42" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="42" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="42" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="42" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="39" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="41" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="41" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="41" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="41" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="41" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="41" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="41" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="42" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="42" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="42" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="42" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="42" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="42" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="42" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="42" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="42" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="42" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="39" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="41" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="41" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="41" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="41" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="41" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="41" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="41" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="42" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="42" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="42" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="42" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="42" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="42" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="42" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="42" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="42" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="42" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="39" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="41" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="41" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="41" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="41" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="41" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="41" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="39" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="41" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="41" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="41" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="41" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="41" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="41" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="41" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="42" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="42" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="42" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="42" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="42" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="42" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="42" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="42" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="42" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="42" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="39" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="41" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="41" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="41" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="41" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="41" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="41" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="41" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="41" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="41" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="41" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="41" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="41" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="41" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="41" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="39" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="41" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="41" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="42" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="42" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="42" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="42" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="42" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="42" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="43" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="43" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="45" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="41" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="40" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="40" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="40" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="40" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="40" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="40" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="40" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="40" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="40" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="40" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="40" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="40" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="40" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="40" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="40" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="40" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="40" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="40" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="40" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="40" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="40" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="40" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="40" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="40" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="40" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="40" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="40" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="40" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="40" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="40" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="40" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="40" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="40" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="40" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="40" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="40" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="40" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="40" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="40" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="40" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="40" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="40" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="40" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="40" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="40" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="40" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="40" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="40" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="40" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="40" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="40" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="40" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="40" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="40" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="40" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="40" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="40" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="41" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="45" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="41" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="40" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="40" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="40" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="40" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="40" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="40" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="40" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="40" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="40" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="45" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="40" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="40" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="40" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="40" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="40" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="40" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="40" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="40" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="40" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="40" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="40" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="40" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="45" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="40" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="40" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="40" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="40" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="40" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="40" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="40" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="40" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="40" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="40" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="40" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="40" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="40" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="40" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="40" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="40" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="40" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="40" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="40" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="40" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="40" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="40" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="40" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="40" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="40" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="40" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="40" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="40" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="46" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="40" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="40" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="40" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="40" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="40" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="40" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="40" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="40" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="40" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="40" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="40" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="40" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="40" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="40" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="40" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="40" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="40" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="40" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="40" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="40" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="40" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="40" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="40" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="40" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="40" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="46" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="40" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="40" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="40" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="40" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="40" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="40" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="40" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="40" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="40" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="40" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="40" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="40" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="40" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="40" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="40" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="40" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="40" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="40" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="40" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="40" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="40" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="40" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="40" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="46" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="41" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="41" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="41" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="41" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="41" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="46" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="40" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="40" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="40" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="40" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="40" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="40" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="40" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="40" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="40" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="40" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="40" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="40" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="40" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="40" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="40" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="40" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="46" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="40" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="40" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="40" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="40" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="40" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="40" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="46" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="40" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="40" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="40" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="40" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="40" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="40" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="46" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="40" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="40" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="40" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="40" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="40" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="40" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="40" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="40" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="40" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="40" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="40" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="40" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="40" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="40" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="40" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="40" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="40" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="40" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="40" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="40" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="40" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="40" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="40" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="40" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="40" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="40" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="40" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="40" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="40" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="40" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="40" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="40" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="40" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="40" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="40" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="46" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="41" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="41" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="41" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="41" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="41" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="41" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="41" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="41" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="41" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="41" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="41" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="41" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="41" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="41" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="41" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="41" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="41" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="41" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="41" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="41" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="41" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="41" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="41" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="41" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="41" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="41" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="41" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="41" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="41" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="41" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="41" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="41" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="41" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="41" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="41" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="41" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="41" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="41" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="41" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="41" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="41" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="41" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="41" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="41" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="41" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="41" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="41" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="41" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="41" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="41" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="41" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="41" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="41" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="41" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="41" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="46" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="40" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="40" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="40" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="40" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="40" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="40" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="40" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="40" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="40" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="40" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="40" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="40" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="40" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="40" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="40" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="40" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="40" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="40" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="40" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="40" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="40" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="46" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="40" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="40" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="40" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="40" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="40" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="40" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="40" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="40" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="40" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="40" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="40" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="40" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="40" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="40" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="40" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="40" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="46" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="40" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="40" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="46" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="47" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="47" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="47" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="47" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="47" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="47" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="46" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="40" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="46" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="43" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="46" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="40" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="40" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="43" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="43" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="43" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="43" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="43" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="43" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="43" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="43" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="43" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="46" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="40" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="40" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="40" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="46" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="40" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="40" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="40" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="40" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="40" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="46" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="40" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="40" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="40" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="40" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="40" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="40" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="40" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="40" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="40" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="46" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="40" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="40" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="40" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="40" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="40" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="40" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="40" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="40" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="40" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="40" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="40" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="40" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="40" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="40" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="40" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="40" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="40" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="40" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="40" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="40" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="46" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="40" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="40" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="40" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="40" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="40" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="40" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="46" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="43" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="43" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="43" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="43" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="43" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="43" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="46" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A740" s="40" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="40" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="40" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="40" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="40" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="40" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="40" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="40" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="40" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="40" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="40" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="46" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="40" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="40" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="40" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="40" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="40" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="46" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="40" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="40" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="40" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="40" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="40" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="40" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="40" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="40" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="40" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="40" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="40" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="40" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="40" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="46" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="40" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="40" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="40" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="40" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="40" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="40" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="40" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="40" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="40" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="40" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="40" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="40" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="40" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="40" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="40" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="40" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="40" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="40" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="40" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="40" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="40" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="40" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="40" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="40" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="40" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="46" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="40" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="40" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="40" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="40" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="43" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="43" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="43" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="43" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="43" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="43" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="46" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="43" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="43" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="43" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="43" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="40" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="40" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="40" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="40" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="40" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="40" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="46" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="40" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="40" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="40" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="40" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="40" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="46" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="43" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="43" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="43" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="43" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="43" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="46" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="43" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="43" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="43" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="43" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="43" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="46" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="43" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="43" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="43" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="43" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="43" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="843" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="46" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="43" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="43" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="43" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="43" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="43" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="46" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="43" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="43" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="43" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="43" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="43" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="43" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="43" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="43" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="43" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="43" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="860" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="46" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="43" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="43" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="43" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="43" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="43" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="43" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="43" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="43" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="43" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="43" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="46" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="43" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="43" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="43" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="43" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="43" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="43" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="43" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="43" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="43" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="43" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="43" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="43" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="43" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="885" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="43" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="43" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="887" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="43" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="43" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="46" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="41" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="41" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="41" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="41" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="41" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="46" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="40" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="40" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="40" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="40" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="40" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="40" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="40" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="40" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="46" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="43" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="43" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="43" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="43" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="46" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="40" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="40" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="40" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="46" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="40" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="40" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="40" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="40" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="40" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="40" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="40" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="40" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="40" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="40" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="40" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="40" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="46" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="43" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="43" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="43" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="43" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="43" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="43" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="43" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="43" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="43" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="43" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="43" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="43" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="46" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="43" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="43" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="43" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="43" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="43" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="43" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="43" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="43" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="43" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="43" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="950" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="43" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="951" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="43" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="46" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="40" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="40" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="40" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="40" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="40" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="40" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="40" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="960" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="46" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="961" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="40" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="962" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="43" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="963" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="43" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="964" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="43" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="965" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="43" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="966" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="43" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="967" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="43" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="968" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="43" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="43" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="970" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="43" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="971" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="43" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="972" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="43" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="973" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="43" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="974" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="43" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="975" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="43" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="976" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="43" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="977" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="43" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="978" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="43" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="46" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="40" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="40" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="982" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="46" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="40" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="40" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="40" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="40" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="40" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="40" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="40" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="40" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="40" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="40" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="40" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="40" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="40" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="40" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="40" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="40" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="40" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="46" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="40" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="40" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="40" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="40" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="40" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="46" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="40" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="40" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="40" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="40" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="40" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="40" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="40" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="40" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="40" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="40" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="40" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="40" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="46" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="40" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="40" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="40" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="40" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="40" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="40" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="40" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="40" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="40" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="40" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="40" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="40" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="40" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="40" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="46" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1035" s="40" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="1036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1036" s="40" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="1037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1037" s="40" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="40" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="1039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1039" s="40" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="1040" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1040" s="46" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="40" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="1042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1042" s="40" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="1043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1043" s="40" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="1044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1044" s="40" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="1045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1045" s="40" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1046" s="40" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="1047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1047" s="40" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="1048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1048" s="40" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="1049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1049" s="40" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="1050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1050" s="40" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="1051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1051" s="40" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="1052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1052" s="40" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="1053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1053" s="40" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="1054" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1054" s="46" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1055" s="40" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="1056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1056" s="40" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1057" s="40" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="1058" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="43" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="1059" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="43" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="1060" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1060" s="46" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1061" s="43" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1062" s="43" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="1063" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1063" s="38" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="1064" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1064" s="38" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1065" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1065" s="38" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="1066" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1066" s="38" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="1067" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1067" s="38" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="1068" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1068" s="38" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="1069" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1069" s="38" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="1070" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1070" s="38" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="1071" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1071" s="38" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="1072" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1072" s="38" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="1073" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1073" s="46" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="1074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1074" s="40" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="1075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1075" s="40" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="1076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1076" s="40" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="1077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1077" s="40" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="1078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1078" s="40" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="1079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1079" s="40" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="1080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1080" s="40" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="1081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1081" s="40" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="40" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1083" s="40" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="1084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1084" s="40" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="1085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1085" s="40" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="1086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1086" s="40" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="1087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1087" s="40" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="1088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1088" s="40" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="1089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1089" s="40" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="1090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1090" s="40" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1091" s="40" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="1092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1092" s="40" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1093" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1093" s="46" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1094" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1094" s="43" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="1095" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1095" s="43" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="1096" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1096" s="43" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="1097" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1097" s="43" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="1098" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1098" s="43" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1099" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1099" s="43" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="1100" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1100" s="43" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="1101" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1101" s="43" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="1102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1102" s="43" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="1103" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1103" s="46" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="1104" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1104" s="43" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="1105" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1105" s="43" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="1106" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="43" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="1107" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1107" s="43" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="1108" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1108" s="43" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1109" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1109" s="43" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="1110" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1110" s="43" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="1111" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1111" s="43" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="1112" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1112" s="43" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="1113" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1113" s="46" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="1114" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1114" s="43" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="1115" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1115" s="43" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="1116" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1116" s="43" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="1117" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1117" s="43" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="1118" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1118" s="43" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1119" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1119" s="43" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="1120" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1120" s="43" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="1121" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1121" s="43" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="1122" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1122" s="43" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="1123" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1123" s="46" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1124" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1124" s="43" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="1125" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1125" s="43" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="1126" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1126" s="43" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="1127" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1127" s="43" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1128" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1128" s="43" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="1129" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1129" s="43" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="1130" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1130" s="43" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="1131" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1131" s="43" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="1132" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1132" s="43" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="1133" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1133" s="43" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1134" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1134" s="43" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="1135" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1135" s="43" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1136" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1136" s="46" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="1137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1137" s="40" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="1138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1138" s="40" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="40" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="1140" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1140" s="46" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="40" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="1142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1142" s="40" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="1143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1143" s="40" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="1144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1144" s="40" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="1145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1145" s="40" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="1146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1146" s="40" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="1147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1147" s="40" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="1148" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1148" s="46" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="1149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1149" s="40" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1150" s="40" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1151" s="40" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="1152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1152" s="40" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1153" s="40" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1154" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1155" s="40" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1156" s="40" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1157" s="40" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1158" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1158" s="46" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1159" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1159" s="43" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1160" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1160" s="43" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1161" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1161" s="43" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="1162" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="43" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1163" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1163" s="43" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1164" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1164" s="43" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1165" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1165" s="43" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1166" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1166" s="43" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1167" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1167" s="43" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1168" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1168" s="46" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="1169" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1169" s="43" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1170" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1170" s="43" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1171" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1171" s="43" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="1172" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1172" s="43" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1173" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="43" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1174" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1174" s="43" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1175" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1175" s="43" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1176" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1176" s="43" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1177" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1177" s="43" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1178" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1178" s="46" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="1179" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1179" s="43" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="1180" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1180" s="43" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="1181" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1181" s="43" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="1182" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1182" s="43" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1183" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1183" s="43" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="1184" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1184" s="43" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="1185" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1185" s="43" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="1186" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1186" s="43" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="1187" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1187" s="43" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="1188" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1188" s="43" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1189" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1189" s="43" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="1190" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1190" s="43" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1191" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="46" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1192" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1192" s="43" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="1193" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1193" s="43" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="1194" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1194" s="43" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="1195" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1195" s="43" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="1196" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1196" s="43" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="1197" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1197" s="43" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1198" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1198" s="43" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="1199" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1199" s="43" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="1200" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1200" s="43" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="1201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1201" s="43" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="1202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1202" s="43" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="1203" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1203" s="43" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="1204" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1204" s="43" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="1205" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1205" s="43" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="1206" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1206" s="46" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="1207" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1207" s="43" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="1208" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1208" s="43" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="1209" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1209" s="43" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="1210" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1210" s="43" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="1211" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1211" s="43" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="1212" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1212" s="43" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1213" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1213" s="43" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="1214" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1214" s="43" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="1215" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1215" s="43" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="1216" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1216" s="43" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="1217" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1217" s="43" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="1218" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1218" s="43" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="1219" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1219" s="43" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="1220" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1220" s="43" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="1221" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1221" s="46" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1222" s="40" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="1223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1223" s="40" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1224" s="40" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="1225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1225" s="40" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="1226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1226" s="40" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="1227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1227" s="40" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="1228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1228" s="40" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="1229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1229" s="40" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="1230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1230" s="40" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="1231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1231" s="40" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1232" s="40" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="1233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1233" s="40" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="1234" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1234" s="46" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="1235" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1235" s="43" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="1236" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1236" s="43" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1237" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1237" s="43" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="1238" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1238" s="43" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="1239" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1239" s="43" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="1240" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1240" s="43" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="1241" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1241" s="43" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="1242" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1242" s="43" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="1243" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1243" s="43" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="1244" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1244" s="43" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1245" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1245" s="43" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="1246" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1246" s="43" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
   </sheetData>

--- a/app/download_dir/одежда_по каждому размеру.xlsx
+++ b/app/download_dir/одежда_по каждому размеру.xlsx
@@ -1573,7 +1573,7 @@
     <t xml:space="preserve">14XL</t>
   </si>
   <si>
-    <t xml:space="preserve">ОБЪЕДИНЕННЫЕ АРАБСКИЕ ЭМИРАТЫ</t>
+    <t xml:space="preserve">ОАЭ</t>
   </si>
   <si>
     <t xml:space="preserve">15XL</t>
@@ -6188,7 +6188,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="73.33"/>
@@ -19485,11 +19485,11 @@
   </sheetPr>
   <dimension ref="A1:J246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D139" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I147" activeCellId="0" sqref="I147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50"/>
@@ -22938,7 +22938,7 @@
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.4"/>
@@ -23647,7 +23647,7 @@
       <selection pane="topLeft" activeCell="A751" activeCellId="0" sqref="A751"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="244.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="244.28125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
